--- a/simpsons_guest_stars.xlsx
+++ b/simpsons_guest_stars.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="simpsons_guest_stars" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="1106">
   <si>
     <t>season</t>
   </si>
@@ -3328,6 +3328,15 @@
   </si>
   <si>
     <t>VABF15</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>[Control + Shift + Enter in formula]</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -3811,9 +3820,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4154,10 +4164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C974"/>
+  <dimension ref="A1:F974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="E2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4165,9 +4175,11 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4178,7 +4190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4188,8 +4200,14 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4199,8 +4217,15 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F3">
+        <f t="array" ref="F3">MAX(LEN(A2:A1000))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4210,8 +4235,15 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="array" ref="F4">MAX(LEN(B2:B1000))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4221,8 +4253,15 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="array" ref="F5">MAX(LEN(C2:C1000))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4233,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4244,7 +4283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4255,7 +4294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4266,7 +4305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4277,7 +4316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4288,7 +4327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4299,7 +4338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4310,7 +4349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4321,7 +4360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4332,7 +4371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
